--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1071">
   <si>
     <t>anchor score</t>
   </si>
@@ -340,559 +340,559 @@
     <t>hardship</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>stops</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>stops</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>special</t>
@@ -3592,10 +3592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K5">
         <v>0.8582677165354331</v>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>0.8454545454545455</v>
@@ -3974,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K9">
         <v>0.759493670886076</v>
@@ -4024,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K10">
         <v>0.746031746031746</v>
@@ -4124,28 +4124,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="K12">
-        <v>0.7056277056277056</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L12">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4174,16 +4174,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K13">
-        <v>0.704225352112676</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4274,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K15">
         <v>0.6140350877192983</v>
@@ -4324,28 +4324,28 @@
         <v>106</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="K16">
-        <v>0.5787878787878787</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L16">
         <v>191</v>
       </c>
       <c r="M16">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4374,7 +4374,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K17">
         <v>0.5605263157894737</v>
@@ -4474,7 +4474,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>0.5522388059701493</v>
@@ -4524,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K20">
         <v>0.5454545454545454</v>
@@ -4624,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K22">
         <v>0.5104166666666666</v>
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K23">
         <v>0.484375</v>
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24">
         <v>0.46875</v>
@@ -4924,7 +4924,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K28">
         <v>0.4347826086956522</v>
@@ -5074,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K31">
         <v>0.4</v>
@@ -5174,7 +5174,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K33">
         <v>0.3928571428571428</v>
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K35">
         <v>0.3924050632911392</v>
@@ -5374,7 +5374,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K37">
         <v>0.35</v>
@@ -5424,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K38">
         <v>0.3474178403755869</v>
@@ -5674,7 +5674,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K43">
         <v>0.3333333333333333</v>
@@ -5774,7 +5774,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K45">
         <v>0.3271604938271605</v>
@@ -5874,7 +5874,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K47">
         <v>0.3187347931873479</v>
@@ -5974,7 +5974,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K49">
         <v>0.3157894736842105</v>
@@ -6174,7 +6174,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K53">
         <v>0.3</v>
@@ -6674,7 +6674,7 @@
         <v>13</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K63">
         <v>0.28</v>
@@ -6924,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K68">
         <v>0.2738853503184713</v>
@@ -7724,7 +7724,7 @@
         <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K84">
         <v>0.2424242424242424</v>
@@ -7874,7 +7874,7 @@
         <v>27</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K87">
         <v>0.2384615384615385</v>
@@ -8624,7 +8624,7 @@
         <v>8</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K102">
         <v>0.2255639097744361</v>
@@ -8656,22 +8656,22 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E103">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F103">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>357</v>
@@ -8703,28 +8703,28 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K104">
         <v>0.2238442822384428</v>
@@ -8756,10 +8756,10 @@
         <v>0.1</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>358</v>
@@ -8806,10 +8806,10 @@
         <v>0.1</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>359</v>
@@ -8856,22 +8856,22 @@
         <v>0.1</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>360</v>
@@ -8906,22 +8906,22 @@
         <v>0.1</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>9</v>
-      </c>
-      <c r="E108">
-        <v>0.78</v>
-      </c>
-      <c r="F108">
-        <v>0.22</v>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>18</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>361</v>
@@ -8974,7 +8974,7 @@
         <v>9</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K109">
         <v>0.2196969696969697</v>
@@ -9024,7 +9024,7 @@
         <v>9</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K110">
         <v>0.215962441314554</v>
@@ -9053,13 +9053,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -9071,10 +9071,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K111">
         <v>0.2153325817361894</v>
@@ -9103,13 +9103,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.09395973154362416</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9121,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K112">
         <v>0.2148148148148148</v>
@@ -9224,7 +9224,7 @@
         <v>10</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K114">
         <v>0.2142857142857143</v>
@@ -9259,16 +9259,16 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>10</v>
@@ -9306,22 +9306,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>364</v>
@@ -9356,22 +9356,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>365</v>
@@ -9453,13 +9453,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9471,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K119">
         <v>0.2117263843648209</v>
@@ -9503,13 +9503,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>367</v>
@@ -9609,22 +9609,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>11</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K122">
         <v>0.2090909090909091</v>
@@ -9653,28 +9653,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K123">
         <v>0.2087227414330218</v>
@@ -9703,13 +9703,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>369</v>
@@ -9809,16 +9809,16 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>13</v>
@@ -9859,13 +9859,13 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -9906,22 +9906,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E128">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F128">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>373</v>
@@ -9956,22 +9956,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>374</v>
@@ -10003,25 +10003,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>375</v>
@@ -10053,25 +10053,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F131">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>376</v>
@@ -10103,25 +10103,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06711409395973154</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>377</v>
@@ -10156,22 +10156,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>378</v>
@@ -10203,13 +10203,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>379</v>
@@ -10253,25 +10253,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>380</v>
@@ -10306,22 +10306,22 @@
         <v>0.0625</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>381</v>
@@ -10359,16 +10359,16 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>15</v>
@@ -10409,16 +10409,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>15</v>
@@ -10459,16 +10459,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>15</v>
@@ -10503,25 +10503,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>385</v>
@@ -10553,7 +10553,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>386</v>
@@ -10609,16 +10609,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>16</v>
@@ -10674,7 +10674,7 @@
         <v>16</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K143">
         <v>0.1986301369863014</v>
@@ -10703,28 +10703,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K144">
         <v>0.1984304932735426</v>
@@ -10753,7 +10753,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>387</v>
@@ -10803,25 +10803,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>388</v>
@@ -10859,16 +10859,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>18</v>
@@ -10909,22 +10909,22 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>18</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K148">
         <v>0.1923076923076923</v>
@@ -10959,16 +10959,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>18</v>
@@ -11003,25 +11003,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>391</v>
@@ -11053,13 +11053,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>392</v>
@@ -11103,13 +11103,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -11121,10 +11121,10 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K152">
         <v>0.190460739779364</v>
@@ -11153,25 +11153,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>393</v>
@@ -11209,16 +11209,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>19</v>
@@ -11253,25 +11253,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="E155">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F155">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>395</v>
@@ -11303,25 +11303,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>396</v>
@@ -11353,28 +11353,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04938271604938271</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K157">
         <v>0.1851851851851852</v>
@@ -11403,28 +11403,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0472972972972973</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K158">
         <v>0.1842105263157895</v>
@@ -11459,13 +11459,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11509,13 +11509,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -11559,13 +11559,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F161">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -11603,25 +11603,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F162">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>400</v>
@@ -11653,25 +11653,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E163">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F163">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>401</v>
@@ -11709,13 +11709,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F164">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11759,16 +11759,16 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>22</v>
@@ -11809,16 +11809,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>22</v>
@@ -11853,25 +11853,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>405</v>
@@ -11903,7 +11903,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11921,10 +11921,10 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K168">
         <v>0.1804901036757776</v>
@@ -11953,28 +11953,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K169">
         <v>0.1801801801801802</v>
@@ -12003,28 +12003,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K170">
         <v>0.1785714285714286</v>
@@ -12059,13 +12059,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -12109,13 +12109,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -12159,13 +12159,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -12203,25 +12203,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>409</v>
@@ -12253,25 +12253,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>410</v>
@@ -12303,25 +12303,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>5</v>
       </c>
       <c r="E176">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F176">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>411</v>
@@ -12403,25 +12403,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>413</v>
@@ -12453,25 +12453,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>414</v>
@@ -12509,16 +12509,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>27</v>
@@ -12553,25 +12553,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>416</v>
@@ -12603,25 +12603,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>417</v>
@@ -12659,13 +12659,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>28</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K183">
         <v>0.1720430107526882</v>
@@ -12703,28 +12703,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K184">
         <v>0.1699115044247788</v>
@@ -12753,28 +12753,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K185">
         <v>0.1690140845070423</v>
@@ -12803,7 +12803,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12821,10 +12821,10 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K186">
         <v>0.1688311688311688</v>
@@ -12853,25 +12853,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="F187">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>418</v>
@@ -12903,25 +12903,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03125</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>419</v>
@@ -12953,25 +12953,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0303030303030303</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E189">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F189">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>420</v>
@@ -13003,25 +13003,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02985074626865672</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>421</v>
@@ -13053,25 +13053,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0297029702970297</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
         <v>3</v>
       </c>
-      <c r="D191">
-        <v>21</v>
-      </c>
       <c r="E191">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>422</v>
@@ -13109,22 +13109,22 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>33</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K192">
         <v>0.1666666666666667</v>
@@ -13153,25 +13153,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>423</v>
@@ -13203,25 +13203,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>424</v>
@@ -13253,28 +13253,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K195">
         <v>0.1666666666666667</v>
@@ -13303,25 +13303,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>425</v>
@@ -13359,13 +13359,13 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
@@ -13403,25 +13403,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>427</v>
@@ -13453,7 +13453,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>428</v>
@@ -13503,25 +13503,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>429</v>
@@ -13553,25 +13553,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>430</v>
@@ -13603,25 +13603,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.025</v>
+        <v>0.02447552447552448</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>431</v>
@@ -13653,13 +13653,13 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D203">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E203">
         <v>0.95</v>
@@ -13671,7 +13671,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>432</v>
@@ -13703,25 +13703,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02447552447552448</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E204">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F204">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>433</v>
@@ -13756,22 +13756,22 @@
         <v>0.02439024390243903</v>
       </c>
       <c r="C205">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>434</v>
@@ -13803,25 +13803,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>435</v>
@@ -13853,28 +13853,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K207">
         <v>0.1666666666666667</v>
@@ -13903,25 +13903,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02380952380952381</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>436</v>
@@ -13953,25 +13953,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F209">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>437</v>
@@ -14003,25 +14003,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02307692307692308</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C210">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F210">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>438</v>
@@ -14053,25 +14053,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02298850574712644</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E211">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F211">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>439</v>
@@ -14103,25 +14103,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>440</v>
@@ -14153,25 +14153,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>441</v>
@@ -14203,25 +14203,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>442</v>
@@ -14253,25 +14253,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>443</v>
@@ -14303,25 +14303,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>444</v>
@@ -14353,25 +14353,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>445</v>
@@ -14403,25 +14403,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F218">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>446</v>
@@ -14453,25 +14453,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F219">
-        <v>0.09999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>447</v>
@@ -14506,22 +14506,22 @@
         <v>0.02040816326530612</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F220">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>448</v>
@@ -14553,25 +14553,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="F221">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>449</v>
@@ -14603,25 +14603,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02040816326530612</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D222">
         <v>5</v>
       </c>
       <c r="E222">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>450</v>
@@ -14653,7 +14653,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>451</v>
@@ -14703,25 +14703,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01984126984126984</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>452</v>
@@ -14753,25 +14753,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E225">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>453</v>
@@ -14803,25 +14803,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>454</v>
@@ -14853,25 +14853,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D227">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>455</v>
@@ -14903,25 +14903,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01851851851851852</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>456</v>
@@ -14953,25 +14953,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>457</v>
@@ -15003,28 +15003,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01807228915662651</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="C230">
         <v>3</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K230">
         <v>0.163265306122449</v>
@@ -15053,25 +15053,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>458</v>
@@ -15103,25 +15103,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01764705882352941</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>459</v>
@@ -15153,25 +15153,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>460</v>
@@ -15203,28 +15203,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K234">
         <v>0.1612903225806452</v>
@@ -15253,25 +15253,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E235">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F235">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>461</v>
@@ -15303,28 +15303,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K236">
         <v>0.1607142857142857</v>
@@ -15353,25 +15353,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01666666666666667</v>
+        <v>0.015625</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F237">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>462</v>
@@ -15403,25 +15403,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01612903225806452</v>
+        <v>0.0154320987654321</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F238">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>463</v>
@@ -15453,28 +15453,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.015625</v>
+        <v>0.015</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K239">
         <v>0.1599378881987578</v>
@@ -15503,28 +15503,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0154320987654321</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E240">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F240">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K240">
         <v>0.1581196581196581</v>
@@ -15553,25 +15553,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.015</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E241">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F241">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>464</v>
@@ -15603,25 +15603,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01418439716312057</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>465</v>
@@ -15653,25 +15653,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01388888888888889</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>466</v>
@@ -15703,28 +15703,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01351351351351351</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>73</v>
+        <v>906</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K244">
         <v>0.1551724137931035</v>
@@ -15753,25 +15753,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01340482573726542</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>467</v>
@@ -15803,25 +15803,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0130718954248366</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C246">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>0.1899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>906</v>
+        <v>77</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>468</v>
@@ -15853,25 +15853,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E247">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F247">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>7</v>
@@ -15903,25 +15903,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>469</v>
@@ -15953,25 +15953,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01265822784810127</v>
+        <v>0.01243093922651934</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D249">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="E249">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F249">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>156</v>
+        <v>715</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>470</v>
@@ -16003,25 +16003,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F250">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>471</v>
@@ -16053,13 +16053,13 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01243093922651934</v>
+        <v>0.01193181818181818</v>
       </c>
       <c r="C251">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D251">
-        <v>186</v>
+        <v>404</v>
       </c>
       <c r="E251">
         <v>0.95</v>
@@ -16071,10 +16071,10 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>715</v>
+        <v>1739</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K251">
         <v>0.152</v>
@@ -16103,28 +16103,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01204819277108434</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K252">
         <v>0.1515151515151515</v>
@@ -16153,25 +16153,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01193181818181818</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C253">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="E253">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F253">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>1739</v>
+        <v>85</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>472</v>
@@ -16203,25 +16203,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01183431952662722</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E254">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F254">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>473</v>
@@ -16253,28 +16253,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01162790697674419</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K255">
         <v>0.1496062992125984</v>
@@ -16303,25 +16303,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01149425287356322</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E256">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F256">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>474</v>
@@ -16353,25 +16353,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01098901098901099</v>
+        <v>0.01096892138939671</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F257">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>90</v>
+        <v>541</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>475</v>
@@ -16403,13 +16403,13 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01098901098901099</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E258">
         <v>0.95</v>
@@ -16421,10 +16421,10 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K258">
         <v>0.1475409836065574</v>
@@ -16453,25 +16453,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01096892138939671</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C259">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D259">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="E259">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F259">
-        <v>0.06000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>541</v>
+        <v>285</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>476</v>
@@ -16503,28 +16503,28 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0108695652173913</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K260">
         <v>0.1428571428571428</v>
@@ -16553,25 +16553,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01041666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E261">
-        <v>0.62</v>
+        <v>0.97</v>
       </c>
       <c r="F261">
-        <v>0.38</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>477</v>
@@ -16603,25 +16603,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01030927835051546</v>
+        <v>0.009957325746799431</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D262">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="E262">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F262">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>96</v>
+        <v>696</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>478</v>
@@ -16653,25 +16653,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01</v>
+        <v>0.00992063492063492</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D263">
-        <v>32</v>
+        <v>612</v>
       </c>
       <c r="E263">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>99</v>
+        <v>2495</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>479</v>
@@ -16703,25 +16703,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.009957325746799431</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C264">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F264">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>696</v>
+        <v>102</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>480</v>
@@ -16753,25 +16753,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.00992063492063492</v>
+        <v>0.009671179883945842</v>
       </c>
       <c r="C265">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D265">
-        <v>612</v>
+        <v>33</v>
       </c>
       <c r="E265">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F265">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>2495</v>
+        <v>512</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>481</v>
@@ -16803,25 +16803,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E266">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F266">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>482</v>
@@ -16853,25 +16853,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.009671179883945842</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C267">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E267">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="F267">
-        <v>0.15</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>483</v>
@@ -16903,25 +16903,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.009615384615384616</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E268">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F268">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>484</v>
@@ -16953,25 +16953,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.009615384615384616</v>
+        <v>0.009247027741083224</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D269">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="E269">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F269">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>103</v>
+        <v>750</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>485</v>
@@ -17003,25 +17003,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.009523809523809525</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E270">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F270">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>486</v>
@@ -17053,25 +17053,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.009247027741083224</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C271">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="E271">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F271">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>750</v>
+        <v>109</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>487</v>
@@ -17103,25 +17103,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.009174311926605505</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E272">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>488</v>
@@ -17153,25 +17153,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.00909090909090909</v>
+        <v>0.008797653958944282</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E273">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F273">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>489</v>
@@ -17203,25 +17203,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.008928571428571428</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>490</v>
@@ -17253,25 +17253,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.008797653958944282</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E275">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F275">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>338</v>
+        <v>119</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>491</v>
@@ -17303,25 +17303,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E276">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>492</v>
@@ -17353,25 +17353,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.008333333333333333</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F277">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>493</v>
@@ -17403,25 +17403,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.00819672131147541</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E278">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F278">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>494</v>
@@ -17453,25 +17453,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.007575757575757576</v>
+        <v>0.004246284501061571</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E279">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F279">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>131</v>
+        <v>469</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>495</v>
@@ -17503,25 +17503,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.005319148936170213</v>
+        <v>0.00421792618629174</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="E280">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F280">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>187</v>
+        <v>2833</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>496</v>
@@ -17553,13 +17553,13 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.004246284501061571</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E281">
         <v>0.98</v>
@@ -17571,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>497</v>
@@ -17603,25 +17603,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.00421792618629174</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="C282">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="E282">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>2833</v>
+        <v>254</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>498</v>
@@ -17653,25 +17653,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.00411522633744856</v>
+        <v>0.003762935089369708</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D283">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E283">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F283">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>242</v>
+        <v>1059</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>499</v>
@@ -17699,30 +17699,6 @@
       </c>
     </row>
     <row r="284" spans="1:17">
-      <c r="A284" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B284">
-        <v>0.00392156862745098</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284">
-        <v>27</v>
-      </c>
-      <c r="E284">
-        <v>0.96</v>
-      </c>
-      <c r="F284">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284">
-        <v>254</v>
-      </c>
       <c r="J284" s="1" t="s">
         <v>500</v>
       </c>
@@ -17749,30 +17725,6 @@
       </c>
     </row>
     <row r="285" spans="1:17">
-      <c r="A285" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B285">
-        <v>0.003762935089369708</v>
-      </c>
-      <c r="C285">
-        <v>4</v>
-      </c>
-      <c r="D285">
-        <v>102</v>
-      </c>
-      <c r="E285">
-        <v>0.96</v>
-      </c>
-      <c r="F285">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285">
-        <v>1059</v>
-      </c>
       <c r="J285" s="1" t="s">
         <v>501</v>
       </c>
@@ -17956,7 +17908,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K292">
         <v>0.1403508771929824</v>
@@ -17982,7 +17934,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K293">
         <v>0.1401869158878505</v>
@@ -18086,7 +18038,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K297">
         <v>0.1384615384615385</v>
@@ -18268,7 +18220,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K304">
         <v>0.1355932203389831</v>
@@ -18320,7 +18272,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K306">
         <v>0.1346153846153846</v>
@@ -18450,7 +18402,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K311">
         <v>0.1333333333333333</v>
@@ -18580,7 +18532,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K316">
         <v>0.1333333333333333</v>
@@ -18632,7 +18584,7 @@
     </row>
     <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K318">
         <v>0.1328125</v>
@@ -18866,7 +18818,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K327">
         <v>0.1279069767441861</v>
@@ -18918,7 +18870,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K329">
         <v>0.1272727272727273</v>
@@ -19958,7 +19910,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K369">
         <v>0.1237113402061856</v>
@@ -19984,7 +19936,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K370">
         <v>0.1219512195121951</v>
@@ -20322,7 +20274,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K383">
         <v>0.1176470588235294</v>
@@ -20348,7 +20300,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K384">
         <v>0.1167883211678832</v>
@@ -20452,7 +20404,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K388">
         <v>0.1145833333333333</v>
@@ -20504,7 +20456,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K390">
         <v>0.1136363636363636</v>
@@ -20608,7 +20560,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K394">
         <v>0.1116337409846347</v>
@@ -20660,7 +20612,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K396">
         <v>0.1111111111111111</v>
@@ -21622,7 +21574,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K433">
         <v>0.1071428571428571</v>
@@ -21882,7 +21834,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K443">
         <v>0.1012658227848101</v>
@@ -22740,7 +22692,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K476">
         <v>0.09677419354838709</v>
@@ -23052,7 +23004,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K488">
         <v>0.09473684210526316</v>
@@ -23078,7 +23030,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K489">
         <v>0.09285714285714286</v>
@@ -23182,7 +23134,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K493">
         <v>0.09090909090909091</v>
@@ -23364,7 +23316,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K500">
         <v>0.09090909090909091</v>
@@ -23910,7 +23862,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K521">
         <v>0.08888888888888889</v>
@@ -24066,7 +24018,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K527">
         <v>0.08695652173913043</v>
@@ -24092,7 +24044,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K528">
         <v>0.08695652173913043</v>
@@ -24222,7 +24174,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K533">
         <v>0.08470181503889369</v>
@@ -24456,7 +24408,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K542">
         <v>0.08333333333333333</v>
@@ -24482,7 +24434,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K543">
         <v>0.08333333333333333</v>
@@ -24950,7 +24902,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K561">
         <v>0.08</v>
@@ -25912,7 +25864,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K598">
         <v>0.075</v>
@@ -26016,7 +25968,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K602">
         <v>0.07407407407407407</v>
@@ -26068,7 +26020,7 @@
     </row>
     <row r="604" spans="10:17">
       <c r="J604" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K604">
         <v>0.07142857142857142</v>
@@ -26094,7 +26046,7 @@
     </row>
     <row r="605" spans="10:17">
       <c r="J605" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K605">
         <v>0.07142857142857142</v>
@@ -26146,7 +26098,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K607">
         <v>0.07142857142857142</v>
@@ -26978,7 +26930,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K639">
         <v>0.06818181818181818</v>
@@ -27108,7 +27060,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K644">
         <v>0.06666666666666667</v>
@@ -27602,7 +27554,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K663">
         <v>0.06451612903225806</v>
@@ -27706,7 +27658,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K667">
         <v>0.06382978723404255</v>
@@ -27758,7 +27710,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K669">
         <v>0.06299212598425197</v>
@@ -28252,7 +28204,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K688">
         <v>0.06153846153846154</v>
@@ -28330,7 +28282,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K691">
         <v>0.06060606060606061</v>
@@ -28564,7 +28516,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K700">
         <v>0.05882352941176471</v>
@@ -28980,7 +28932,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K716">
         <v>0.05714285714285714</v>
@@ -29058,7 +29010,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K719">
         <v>0.05555555555555555</v>
@@ -29474,7 +29426,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K735">
         <v>0.05322128851540616</v>
@@ -29500,7 +29452,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K736">
         <v>0.05263157894736842</v>
@@ -30046,7 +29998,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K757">
         <v>0.05230125523012552</v>
@@ -30098,7 +30050,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K759">
         <v>0.05185185185185185</v>
@@ -30332,7 +30284,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K768">
         <v>0.05</v>
@@ -30514,7 +30466,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K775">
         <v>0.04938271604938271</v>
@@ -30540,7 +30492,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K776">
         <v>0.04838709677419355</v>
@@ -30930,7 +30882,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K791">
         <v>0.04672897196261682</v>
@@ -31034,7 +30986,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K795">
         <v>0.04545454545454546</v>
@@ -31190,7 +31142,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K801">
         <v>0.04379562043795621</v>
@@ -31450,7 +31402,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K811">
         <v>0.0425531914893617</v>
@@ -31892,7 +31844,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K828">
         <v>0.03846153846153846</v>
@@ -32178,7 +32130,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K839">
         <v>0.03571428571428571</v>
@@ -32256,7 +32208,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K842">
         <v>0.03571428571428571</v>
@@ -32282,7 +32234,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K843">
         <v>0.03571428571428571</v>
@@ -32360,7 +32312,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K846">
         <v>0.03529411764705882</v>
@@ -32438,7 +32390,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K849">
         <v>0.03448275862068965</v>
@@ -32984,7 +32936,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K870">
         <v>0.0303030303030303</v>
@@ -33010,7 +32962,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K871">
         <v>0.0303030303030303</v>
@@ -33322,7 +33274,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K883">
         <v>0.02702702702702703</v>
@@ -33348,7 +33300,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K884">
         <v>0.02666666666666667</v>
@@ -33478,7 +33430,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K889">
         <v>0.02564102564102564</v>
@@ -33634,7 +33586,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K895">
         <v>0.025</v>
@@ -33842,7 +33794,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K903">
         <v>0.02272727272727273</v>
@@ -34128,7 +34080,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K914">
         <v>0.01724137931034483</v>
@@ -34310,7 +34262,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K921">
         <v>0.01578947368421053</v>
